--- a/TestableConsoleApp/Backlog.xlsx
+++ b/TestableConsoleApp/Backlog.xlsx
@@ -7,8 +7,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$E$28</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -30,18 +34,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t>CTOR Order.cs Console SetIn/Out</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>Committed</t>
-  </si>
-  <si>
     <t>https://app.pluralsight.com/course-player?clipId=62e99d64-8097-486e-90cd-1185500ac10c</t>
   </si>
   <si>
@@ -52,6 +50,30 @@
   </si>
   <si>
     <t>Extract UI, Businesslogic &amp; DataLayer</t>
+  </si>
+  <si>
+    <t>1 CTOR Order.cs Console SetIn/Out</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>New class</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>On hold</t>
+  </si>
+  <si>
+    <t>Implement IDispossible best practices</t>
   </si>
 </sst>
 </file>
@@ -389,17 +411,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -407,179 +430,156 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:E28">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="Approved"/>
+        <filter val="On hold"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A3:E28">
+      <sortCondition ref="B1:B28"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestableConsoleApp/Backlog.xlsx
+++ b/TestableConsoleApp/Backlog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Implement IDispossible best practices</t>
+  </si>
+  <si>
+    <t>Commited</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>

--- a/TestableConsoleApp/Backlog.xlsx
+++ b/TestableConsoleApp/Backlog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Specflow for regression tests</t>
   </si>
   <si>
-    <t>Use database as repository (dapper or entity framework core)</t>
-  </si>
-  <si>
     <t>Extract UI, Businesslogic &amp; DataLayer</t>
   </si>
   <si>
@@ -77,6 +74,15 @@
   </si>
   <si>
     <t>Commited</t>
+  </si>
+  <si>
+    <t>use resource (manager)</t>
+  </si>
+  <si>
+    <t>Use format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use dapper database as repository </t>
   </si>
 </sst>
 </file>
@@ -415,10 +421,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -461,72 +467,94 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
         <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -534,11 +562,12 @@
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="Approved"/>
+        <filter val="Commited"/>
         <filter val="On hold"/>
       </filters>
     </filterColumn>
-    <sortState ref="A3:E28">
-      <sortCondition ref="B1:B28"/>
+    <sortState ref="A3:E9">
+      <sortCondition ref="C1:C28"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -570,15 +599,15 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TestableConsoleApp/Backlog.xlsx
+++ b/TestableConsoleApp/Backlog.xlsx
@@ -11,7 +11,7 @@
     <sheet name="1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$E$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$D$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -73,16 +73,22 @@
     <t>Implement IDispossible best practices</t>
   </si>
   <si>
-    <t>Commited</t>
-  </si>
-  <si>
-    <t>use resource (manager)</t>
-  </si>
-  <si>
-    <t>Use format</t>
-  </si>
-  <si>
     <t xml:space="preserve">Use dapper database as repository </t>
+  </si>
+  <si>
+    <t>Create test database</t>
+  </si>
+  <si>
+    <t>use resource (manager) for Console Writelines</t>
+  </si>
+  <si>
+    <t>Dapper: GetList(where expression)</t>
+  </si>
+  <si>
+    <t>Let user choose if they want to order food or drinks</t>
+  </si>
+  <si>
+    <t>Implement Idispossible SQL</t>
   </si>
 </sst>
 </file>
@@ -421,157 +427,171 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E28">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:D27">
+    <filterColumn colId="1">
       <filters blank="1">
         <filter val="Approved"/>
-        <filter val="Commited"/>
         <filter val="On hold"/>
       </filters>
     </filterColumn>
     <sortState ref="A3:E9">
-      <sortCondition ref="C1:C28"/>
+      <sortCondition ref="A1:A28"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/TestableConsoleApp/Backlog.xlsx
+++ b/TestableConsoleApp/Backlog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Implement Idispossible SQL</t>
+  </si>
+  <si>
+    <t>Logging</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,12 +515,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -576,6 +579,17 @@
       </c>
       <c r="C12" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/TestableConsoleApp/Backlog.xlsx
+++ b/TestableConsoleApp/Backlog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>Logging</t>
+  </si>
+  <si>
+    <t>Get order history from console</t>
+  </si>
+  <si>
+    <t>Add users</t>
+  </si>
+  <si>
+    <t>Add resource to foods and drinks</t>
+  </si>
+  <si>
+    <t>Add current culture to price to console</t>
+  </si>
+  <si>
+    <t>Committed</t>
+  </si>
+  <si>
+    <t>Let user change language</t>
   </si>
 </sst>
 </file>
@@ -430,15 +448,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -476,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -498,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -542,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -590,6 +608,61 @@
       </c>
       <c r="C13" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TestableConsoleApp/Backlog.xlsx
+++ b/TestableConsoleApp/Backlog.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -670,6 +670,7 @@
     <filterColumn colId="1">
       <filters blank="1">
         <filter val="Approved"/>
+        <filter val="Committed"/>
         <filter val="On hold"/>
       </filters>
     </filterColumn>

--- a/TestableConsoleApp/Backlog.xlsx
+++ b/TestableConsoleApp/Backlog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Add current culture to price to console</t>
   </si>
   <si>
-    <t>Committed</t>
-  </si>
-  <si>
     <t>Let user change language</t>
+  </si>
+  <si>
+    <t>Extract methods to helper class and unit test</t>
   </si>
 </sst>
 </file>
@@ -448,10 +448,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -662,6 +662,17 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
       </c>
     </row>

--- a/TestableConsoleApp/Backlog.xlsx
+++ b/TestableConsoleApp/Backlog.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -82,9 +82,6 @@
     <t>use resource (manager) for Console Writelines</t>
   </si>
   <si>
-    <t>Dapper: GetList(where expression)</t>
-  </si>
-  <si>
     <t>Let user choose if they want to order food or drinks</t>
   </si>
   <si>
@@ -110,6 +107,21 @@
   </si>
   <si>
     <t>Extract methods to helper class and unit test</t>
+  </si>
+  <si>
+    <t>Use template pattern console</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/player?course=building-dotnet-console-applications-csharp&amp;author=jason-roberts&amp;name=building-dotnet-console-applications-csharp-m4&amp;clip=2&amp;mode=live</t>
+  </si>
+  <si>
+    <t>Dapper: GetList with type filter and unit test</t>
+  </si>
+  <si>
+    <t>Encapilation more public -&gt; internal classes and test acccess to internal</t>
+  </si>
+  <si>
+    <t>Comitted</t>
   </si>
 </sst>
 </file>
@@ -448,16 +460,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -489,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -511,7 +523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -522,7 +534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -571,10 +583,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -585,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -607,10 +619,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -618,10 +630,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -629,7 +641,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,10 +652,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -651,10 +663,10 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -662,10 +674,10 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -673,16 +685,46 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-    </row>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:D27">
     <filterColumn colId="1">
-      <filters blank="1">
+      <filters>
         <filter val="Approved"/>
-        <filter val="Committed"/>
-        <filter val="On hold"/>
+        <filter val="Comitted"/>
       </filters>
     </filterColumn>
     <sortState ref="A3:E9">
@@ -691,9 +733,10 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/TestableConsoleApp/Backlog.xlsx
+++ b/TestableConsoleApp/Backlog.xlsx
@@ -121,7 +121,7 @@
     <t>Encapilation more public -&gt; internal classes and test acccess to internal</t>
   </si>
   <si>
-    <t>Comitted</t>
+    <t>Commited</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C30" activeCellId="1" sqref="B31 C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,12 +578,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -707,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -724,7 +724,6 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Approved"/>
-        <filter val="Comitted"/>
       </filters>
     </filterColumn>
     <sortState ref="A3:E9">

--- a/TestableConsoleApp/Backlog.xlsx
+++ b/TestableConsoleApp/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -121,7 +121,10 @@
     <t>Encapilation more public -&gt; internal classes and test acccess to internal</t>
   </si>
   <si>
-    <t>Commited</t>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Comitted</t>
   </si>
 </sst>
 </file>
@@ -463,17 +466,17 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" activeCellId="1" sqref="B31 C30"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -501,18 +504,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -523,7 +526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -534,7 +537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -545,7 +548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -556,7 +559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -567,7 +570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -578,7 +581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -589,18 +592,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -611,7 +614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -622,7 +625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -633,7 +636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -644,7 +647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -655,7 +658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -666,7 +669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -677,7 +680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>19</v>
       </c>
@@ -688,7 +691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
@@ -702,23 +705,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A1:D27">
     <filterColumn colId="1">
@@ -747,12 +760,12 @@
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -763,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>

--- a/TestableConsoleApp/Backlog.xlsx
+++ b/TestableConsoleApp/Backlog.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,7 +592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -737,6 +737,7 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Approved"/>
+        <filter val="Comitted"/>
       </filters>
     </filterColumn>
     <sortState ref="A3:E9">
